--- a/Archivos de proyecto/Catalogos originales/apoyos.xlsx
+++ b/Archivos de proyecto/Catalogos originales/apoyos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>CURP</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>id_periodicidad (*)</t>
-  </si>
-  <si>
-    <t>AAAA830602MZSRVL02</t>
   </si>
   <si>
     <t>AAAB940222MZSLLR02</t>
@@ -507,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -570,13 +567,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="3">
-        <v>4016.36</v>
+        <v>3886.08</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>41182</v>
+        <v>41080</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -584,9 +581,7 @@
       <c r="I2" s="3">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
-        <v>9</v>
-      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -602,13 +597,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="3">
-        <v>3886.08</v>
+        <v>4664.16</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>41080</v>
+        <v>41089</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -616,9 +611,7 @@
       <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="3">
-        <v>9</v>
-      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -634,13 +627,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="3">
-        <v>4664.16</v>
+        <v>1860.8</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4">
-        <v>41089</v>
+        <v>41213</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -648,9 +641,7 @@
       <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
-        <v>9</v>
-      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -666,13 +657,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="3">
-        <v>1860.8</v>
+        <v>1860.08</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="G5" s="4">
-        <v>41213</v>
+        <v>41013</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -680,9 +671,7 @@
       <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="3">
-        <v>9</v>
-      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -698,13 +687,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="3">
-        <v>1860.08</v>
+        <v>2232.96</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>41013</v>
+        <v>41211</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -712,9 +701,7 @@
       <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <v>9</v>
-      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -730,13 +717,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="3">
-        <v>2232.96</v>
+        <v>3886.08</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="4">
-        <v>41211</v>
+        <v>41028</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -744,9 +731,7 @@
       <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="3">
-        <v>9</v>
-      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -762,13 +747,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <v>3886.08</v>
+        <v>4664.16</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>41028</v>
+        <v>41119</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -776,9 +761,7 @@
       <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="3">
-        <v>9</v>
-      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -788,19 +771,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>4664.16</v>
+        <v>1095.5999999999999</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <v>41119</v>
+        <v>41174</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -808,9 +791,7 @@
       <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="3">
-        <v>9</v>
-      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -826,13 +807,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>1095.5999999999999</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>41174</v>
+        <v>41192</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -840,9 +821,7 @@
       <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="3">
-        <v>8</v>
-      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -864,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>41192</v>
+        <v>41043</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -872,9 +851,7 @@
       <c r="I11" s="3">
         <v>2</v>
       </c>
-      <c r="J11" s="3">
-        <v>8</v>
-      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -884,19 +861,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3">
-        <v>1200</v>
+        <v>3109.44</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>41043</v>
+        <v>41058</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -904,9 +881,7 @@
       <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="J12" s="3">
-        <v>8</v>
-      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -922,13 +897,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="3">
-        <v>3109.44</v>
+        <v>1860.08</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
-        <v>41058</v>
+        <v>41257</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -936,9 +911,7 @@
       <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="J13" s="3">
-        <v>9</v>
-      </c>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -959,8 +932,8 @@
       <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="4">
-        <v>41257</v>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -968,31 +941,29 @@
       <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="J14" s="3">
-        <v>9</v>
-      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>1860.08</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>41257</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -1000,9 +971,7 @@
       <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="3">
-        <v>9</v>
-      </c>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1012,19 +981,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3">
-        <v>1200</v>
+        <v>4382.3999999999996</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
-        <v>41257</v>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1032,13 +1001,11 @@
       <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="J16" s="3">
-        <v>8</v>
-      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1050,13 +1017,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="3">
-        <v>4382.3999999999996</v>
+        <v>3886.08</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
+      <c r="G17" s="4">
+        <v>41119</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1064,9 +1031,7 @@
       <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="3">
-        <v>9</v>
-      </c>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1082,13 +1047,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="3">
-        <v>3886.08</v>
+        <v>1860.08</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4">
-        <v>41119</v>
+        <v>41048</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -1096,9 +1061,7 @@
       <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="3">
-        <v>9</v>
-      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1114,13 +1077,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="3">
-        <v>1860.08</v>
+        <v>3109.44</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>41048</v>
+        <v>41272</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -1128,9 +1091,7 @@
       <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="3">
-        <v>9</v>
-      </c>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1152,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>41272</v>
+        <v>41119</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -1160,9 +1121,7 @@
       <c r="I20" s="3">
         <v>2</v>
       </c>
-      <c r="J20" s="3">
-        <v>9</v>
-      </c>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1172,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D21" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>3109.44</v>
+        <v>800</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="4">
-        <v>41119</v>
+        <v>41192</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -1192,9 +1151,7 @@
       <c r="I21" s="3">
         <v>2</v>
       </c>
-      <c r="J21" s="3">
-        <v>9</v>
-      </c>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1210,13 +1167,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="4">
-        <v>41192</v>
+        <v>41087</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -1224,9 +1181,7 @@
       <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="J22" s="3">
-        <v>8</v>
-      </c>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1236,19 +1191,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D23" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3">
-        <v>1200</v>
+        <v>3886.08</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>41087</v>
+        <v>41058</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -1256,9 +1211,7 @@
       <c r="I23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="3">
-        <v>8</v>
-      </c>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1274,13 +1227,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="3">
-        <v>3886.08</v>
+        <v>1860.08</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4">
-        <v>41058</v>
+        <v>41180</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -1288,41 +1241,7 @@
       <c r="I24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>311</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1860.08</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>41180</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>9</v>
-      </c>
+      <c r="J24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
